--- a/backend/fms_core/tests/valid_templates/Experiment_run_MGI_v3_5_0.xlsx
+++ b/backend/fms_core/tests/valid_templates/Experiment_run_MGI_v3_5_0.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sballesteros/Documents/Freezeman/freezeman/backend/fms_core/tests/valid_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99BEBB7F-FB07-E84C-B74B-9E5B384522BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4B6A0AF-DBC4-1E47-9414-829DCE58F94A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="14520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Experiments" sheetId="1" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="456">
   <si>
     <t>Experiment Submission Template</t>
   </si>
@@ -1416,6 +1416,9 @@
   </si>
   <si>
     <t>Test comment</t>
+  </si>
+  <si>
+    <t>Source Sample Name</t>
   </si>
 </sst>
 </file>
@@ -3305,155 +3308,159 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AMH100"/>
+  <dimension ref="A1:AMI100"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="24.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5" customWidth="1"/>
-    <col min="982" max="1023" width="9.1640625" customWidth="1"/>
+    <col min="1" max="3" width="24.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27.6640625" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
+    <col min="983" max="1024" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1022" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1023" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1022" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
         <v>42</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="8"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="17"/>
       <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:1022" s="19" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:1023" s="19" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="D4" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="E4" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="F4" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="G4" s="19" t="s">
         <v>453</v>
       </c>
-      <c r="AMF4" s="20"/>
       <c r="AMG4" s="20"/>
       <c r="AMH4" s="20"/>
-    </row>
-    <row r="5" spans="1:1022" x14ac:dyDescent="0.2">
+      <c r="AMI4" s="20"/>
+    </row>
+    <row r="5" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>10</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="F5" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>454</v>
       </c>
     </row>
-    <row r="6" spans="1:1022" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
     </row>
-    <row r="7" spans="1:1022" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
     </row>
-    <row r="8" spans="1:1022" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
     </row>
-    <row r="9" spans="1:1022" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
     </row>
-    <row r="10" spans="1:1022" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
     </row>
-    <row r="11" spans="1:1022" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
     </row>
-    <row r="12" spans="1:1022" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
     </row>
-    <row r="13" spans="1:1022" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
     </row>
-    <row r="14" spans="1:1022" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
     </row>
-    <row r="15" spans="1:1022" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
     </row>
-    <row r="16" spans="1:1022" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:1023" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
-      <c r="C19" s="6"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="6"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="7"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="7"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="7"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="7"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="7"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
@@ -3682,7 +3689,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E6:E101</xm:sqref>
+          <xm:sqref>F6:F101</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000002000000}">
           <x14:formula1>
@@ -3691,7 +3698,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>C5:C101</xm:sqref>
+          <xm:sqref>D5:D101</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" operator="equal" allowBlank="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000003000000}">
           <x14:formula1>
@@ -3700,7 +3707,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E5</xm:sqref>
+          <xm:sqref>F5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
